--- a/Local News/Local News - Bug Report.xlsx
+++ b/Local News/Local News - Bug Report.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/22d1aaffb5e974dc/Desktop/Game Testing/Local News/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="6" documentId="11_F25DC773A252ABDACC1048B5195B61A85BDE58F6" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{33EA209E-4F63-469E-8246-DAA0831F700C}"/>
+  <xr:revisionPtr revIDLastSave="7" documentId="11_F25DC773A252ABDACC1048B5195B61A85BDE58F6" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{076E8149-3DA1-4B5E-A5A0-E6A095832A79}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="171" uniqueCount="153">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="215" uniqueCount="188">
   <si>
     <t>Defect Report</t>
   </si>
@@ -484,6 +484,111 @@
   </si>
   <si>
     <t>Player can move freely while talking to Oaklyin on day 1</t>
+  </si>
+  <si>
+    <t>When Cliff and Clarence gets into their dialogue on day 1, the character artwork does not change when Cliff talks</t>
+  </si>
+  <si>
+    <t>meet Clarence on Day 1</t>
+  </si>
+  <si>
+    <t>start the conversation between Cliff and Clarence</t>
+  </si>
+  <si>
+    <t>The character artwork changes based on who is talking</t>
+  </si>
+  <si>
+    <t>During the dialogue between Cliff and Clarence, only the artwork of Clarence is on screen</t>
+  </si>
+  <si>
+    <t>While talking to Oaklyin on day 1, player can move during the conversation</t>
+  </si>
+  <si>
+    <t>Start talking with Oaklyin after the explosion on Day 1</t>
+  </si>
+  <si>
+    <t>move away</t>
+  </si>
+  <si>
+    <t>Player cannot move around while in dialogue</t>
+  </si>
+  <si>
+    <t>Player can move around while in dialogue with Oakliyn</t>
+  </si>
+  <si>
+    <t>Locnew 20</t>
+  </si>
+  <si>
+    <t>The Music volume in the settings changes inconsistently</t>
+  </si>
+  <si>
+    <t>Change the music volume by one or change the text volume/SFX volume to max</t>
+  </si>
+  <si>
+    <t>Turning the Text volume or the SFX volume all the way up, causes the Music volume to go very quiet. This also works if the Music volume is turned down by 1</t>
+  </si>
+  <si>
+    <t>Changing a volume setting in the options only changes the chosen volume and only one bit at a time</t>
+  </si>
+  <si>
+    <t>Changing the SFX-Text volume to the max cahnges the music volume very quiet. This also happens if the Music volume is turned down by 1</t>
+  </si>
+  <si>
+    <t>Locnew 21</t>
+  </si>
+  <si>
+    <t>The default SFX volume is the loudest option on the slider</t>
+  </si>
+  <si>
+    <t>Changing the SFX volume from the default volume causes the volume to go quiet. Even on max volume, the default volume is the loudest</t>
+  </si>
+  <si>
+    <t>Start the game with the default SFX volume (or change it back to the default and relog to the game)</t>
+  </si>
+  <si>
+    <t>listen to the SFX volume</t>
+  </si>
+  <si>
+    <t>change the SFX volume</t>
+  </si>
+  <si>
+    <t>Changing the default SFX volume causes the SFX volume to go either louder or quieter</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Changing the default SFX volume causes the SFX volume to go quieter </t>
+  </si>
+  <si>
+    <t>Locnew 22</t>
+  </si>
+  <si>
+    <t>Watching through the opening credits causes the game to start with quieter Music volume</t>
+  </si>
+  <si>
+    <t>Watching through the opening credits makes the game start with quieter Music volume than when player clicks through it</t>
+  </si>
+  <si>
+    <t>Launch the game</t>
+  </si>
+  <si>
+    <t>listen to the Music volume</t>
+  </si>
+  <si>
+    <t>watch through the opening credits</t>
+  </si>
+  <si>
+    <t>quit from the game to the desktop</t>
+  </si>
+  <si>
+    <t>launch the game again</t>
+  </si>
+  <si>
+    <t>skip through the opening credits as soon as the game allows</t>
+  </si>
+  <si>
+    <t>The music volume does not change unless player changes it</t>
+  </si>
+  <si>
+    <t>The music volume goes quieter if player watches through the opening credits</t>
   </si>
 </sst>
 </file>
@@ -937,8 +1042,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{60820B4C-E762-4DB8-A5FB-C32065110B67}" name="Table2" displayName="Table2" ref="B11:H76" totalsRowShown="0" headerRowDxfId="9" dataDxfId="8" tableBorderDxfId="7">
-  <autoFilter ref="B11:H76" xr:uid="{60820B4C-E762-4DB8-A5FB-C32065110B67}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{60820B4C-E762-4DB8-A5FB-C32065110B67}" name="Table2" displayName="Table2" ref="B11:H115" totalsRowShown="0" headerRowDxfId="9" dataDxfId="8" tableBorderDxfId="7">
+  <autoFilter ref="B11:H115" xr:uid="{60820B4C-E762-4DB8-A5FB-C32065110B67}"/>
   <tableColumns count="7">
     <tableColumn id="1" xr3:uid="{7F2893E9-ADB1-4509-B0A9-4A944A97BD35}" name="BugID" dataDxfId="6"/>
     <tableColumn id="2" xr3:uid="{687076DE-3F2C-4B88-8671-ABD2542E7605}" name="Short Description" dataDxfId="5"/>
@@ -1215,10 +1320,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B1:H80"/>
+  <dimension ref="B1:H115"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A64" workbookViewId="0">
-      <selection activeCell="E77" sqref="E77"/>
+    <sheetView tabSelected="1" topLeftCell="A32" workbookViewId="0">
+      <selection activeCell="C37" sqref="C37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2224,21 +2329,452 @@
       <c r="G76" s="4"/>
       <c r="H76" s="4"/>
     </row>
-    <row r="78" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B78" t="s">
+    <row r="77" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B77" s="4"/>
+      <c r="C77" s="4"/>
+      <c r="D77" s="4"/>
+      <c r="E77" s="4"/>
+      <c r="F77" s="4"/>
+      <c r="G77" s="4"/>
+      <c r="H77" s="4"/>
+    </row>
+    <row r="78" spans="2:8" ht="45" x14ac:dyDescent="0.25">
+      <c r="B78" s="4" t="s">
         <v>137</v>
       </c>
-      <c r="C78" t="s">
+      <c r="C78" s="4" t="s">
         <v>150</v>
       </c>
+      <c r="D78" s="4" t="s">
+        <v>153</v>
+      </c>
+      <c r="E78" s="4" t="s">
+        <v>154</v>
+      </c>
+      <c r="F78" s="4" t="s">
+        <v>156</v>
+      </c>
+      <c r="G78" s="4" t="s">
+        <v>157</v>
+      </c>
+      <c r="H78" s="4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="79" spans="2:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="B79" s="4"/>
+      <c r="C79" s="4"/>
+      <c r="D79" s="4"/>
+      <c r="E79" s="4" t="s">
+        <v>155</v>
+      </c>
+      <c r="F79" s="4"/>
+      <c r="G79" s="4"/>
+      <c r="H79" s="4"/>
     </row>
     <row r="80" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B80" t="s">
+      <c r="B80" s="4"/>
+      <c r="C80" s="4"/>
+      <c r="D80" s="4"/>
+      <c r="E80" s="4"/>
+      <c r="F80" s="4"/>
+      <c r="G80" s="4"/>
+      <c r="H80" s="4"/>
+    </row>
+    <row r="81" spans="2:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="B81" s="4" t="s">
         <v>151</v>
       </c>
-      <c r="C80" t="s">
+      <c r="C81" s="4" t="s">
         <v>152</v>
       </c>
+      <c r="D81" s="4" t="s">
+        <v>158</v>
+      </c>
+      <c r="E81" s="4" t="s">
+        <v>159</v>
+      </c>
+      <c r="F81" s="4" t="s">
+        <v>161</v>
+      </c>
+      <c r="G81" s="4" t="s">
+        <v>162</v>
+      </c>
+      <c r="H81" s="4" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="82" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B82" s="4"/>
+      <c r="C82" s="4"/>
+      <c r="D82" s="4"/>
+      <c r="E82" s="4" t="s">
+        <v>160</v>
+      </c>
+      <c r="F82" s="4"/>
+      <c r="G82" s="4"/>
+      <c r="H82" s="4"/>
+    </row>
+    <row r="83" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B83" s="4"/>
+      <c r="C83" s="4"/>
+      <c r="D83" s="4"/>
+      <c r="E83" s="4"/>
+      <c r="F83" s="4"/>
+      <c r="G83" s="4"/>
+      <c r="H83" s="4"/>
+    </row>
+    <row r="84" spans="2:8" ht="75" x14ac:dyDescent="0.25">
+      <c r="B84" s="4" t="s">
+        <v>163</v>
+      </c>
+      <c r="C84" s="4" t="s">
+        <v>164</v>
+      </c>
+      <c r="D84" s="4" t="s">
+        <v>166</v>
+      </c>
+      <c r="E84" s="4" t="s">
+        <v>165</v>
+      </c>
+      <c r="F84" s="4" t="s">
+        <v>167</v>
+      </c>
+      <c r="G84" s="4" t="s">
+        <v>168</v>
+      </c>
+      <c r="H84" s="4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="85" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B85" s="4"/>
+      <c r="C85" s="4"/>
+      <c r="D85" s="4"/>
+      <c r="E85" s="4"/>
+      <c r="F85" s="4"/>
+      <c r="G85" s="4"/>
+      <c r="H85" s="4"/>
+    </row>
+    <row r="86" spans="2:8" ht="45" x14ac:dyDescent="0.25">
+      <c r="B86" s="4" t="s">
+        <v>169</v>
+      </c>
+      <c r="C86" s="4" t="s">
+        <v>170</v>
+      </c>
+      <c r="D86" s="4" t="s">
+        <v>171</v>
+      </c>
+      <c r="E86" s="4" t="s">
+        <v>172</v>
+      </c>
+      <c r="F86" s="4" t="s">
+        <v>175</v>
+      </c>
+      <c r="G86" s="4" t="s">
+        <v>176</v>
+      </c>
+      <c r="H86" s="4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="87" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B87" s="4"/>
+      <c r="C87" s="4"/>
+      <c r="D87" s="4"/>
+      <c r="E87" s="4" t="s">
+        <v>173</v>
+      </c>
+      <c r="F87" s="4"/>
+      <c r="G87" s="4"/>
+      <c r="H87" s="4"/>
+    </row>
+    <row r="88" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B88" s="4"/>
+      <c r="C88" s="4"/>
+      <c r="D88" s="4"/>
+      <c r="E88" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="F88" s="4"/>
+      <c r="G88" s="4"/>
+      <c r="H88" s="4"/>
+    </row>
+    <row r="89" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B89" s="4"/>
+      <c r="C89" s="4"/>
+      <c r="D89" s="4"/>
+      <c r="E89" s="4" t="s">
+        <v>174</v>
+      </c>
+      <c r="F89" s="4"/>
+      <c r="G89" s="4"/>
+      <c r="H89" s="4"/>
+    </row>
+    <row r="90" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B90" s="4"/>
+      <c r="C90" s="4"/>
+      <c r="D90" s="4"/>
+      <c r="E90" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="F90" s="4"/>
+      <c r="G90" s="4"/>
+      <c r="H90" s="4"/>
+    </row>
+    <row r="91" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B91" s="4"/>
+      <c r="C91" s="4"/>
+      <c r="D91" s="4"/>
+      <c r="E91" s="4" t="s">
+        <v>173</v>
+      </c>
+      <c r="F91" s="4"/>
+      <c r="G91" s="4"/>
+      <c r="H91" s="4"/>
+    </row>
+    <row r="92" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B92" s="4"/>
+      <c r="C92" s="4"/>
+      <c r="D92" s="4"/>
+      <c r="E92" s="4"/>
+      <c r="F92" s="4"/>
+      <c r="G92" s="4"/>
+      <c r="H92" s="4"/>
+    </row>
+    <row r="93" spans="2:8" ht="45" x14ac:dyDescent="0.25">
+      <c r="B93" s="4" t="s">
+        <v>177</v>
+      </c>
+      <c r="C93" s="4" t="s">
+        <v>178</v>
+      </c>
+      <c r="D93" s="4" t="s">
+        <v>179</v>
+      </c>
+      <c r="E93" s="4" t="s">
+        <v>180</v>
+      </c>
+      <c r="F93" s="4" t="s">
+        <v>186</v>
+      </c>
+      <c r="G93" s="4" t="s">
+        <v>187</v>
+      </c>
+      <c r="H93" s="4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="94" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B94" s="4"/>
+      <c r="C94" s="4"/>
+      <c r="D94" s="4"/>
+      <c r="E94" s="4" t="s">
+        <v>182</v>
+      </c>
+      <c r="F94" s="4"/>
+      <c r="G94" s="4"/>
+      <c r="H94" s="4"/>
+    </row>
+    <row r="95" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B95" s="4"/>
+      <c r="C95" s="4"/>
+      <c r="D95" s="4"/>
+      <c r="E95" s="4" t="s">
+        <v>181</v>
+      </c>
+      <c r="F95" s="4"/>
+      <c r="G95" s="4"/>
+      <c r="H95" s="4"/>
+    </row>
+    <row r="96" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B96" s="4"/>
+      <c r="C96" s="4"/>
+      <c r="D96" s="4"/>
+      <c r="E96" s="4" t="s">
+        <v>183</v>
+      </c>
+      <c r="F96" s="4"/>
+      <c r="G96" s="4"/>
+      <c r="H96" s="4"/>
+    </row>
+    <row r="97" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B97" s="4"/>
+      <c r="C97" s="4"/>
+      <c r="D97" s="4"/>
+      <c r="E97" s="4" t="s">
+        <v>184</v>
+      </c>
+      <c r="F97" s="4"/>
+      <c r="G97" s="4"/>
+      <c r="H97" s="4"/>
+    </row>
+    <row r="98" spans="2:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="B98" s="4"/>
+      <c r="C98" s="4"/>
+      <c r="D98" s="4"/>
+      <c r="E98" s="4" t="s">
+        <v>185</v>
+      </c>
+      <c r="F98" s="4"/>
+      <c r="G98" s="4"/>
+      <c r="H98" s="4"/>
+    </row>
+    <row r="99" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B99" s="4"/>
+      <c r="C99" s="4"/>
+      <c r="D99" s="4"/>
+      <c r="E99" s="4" t="s">
+        <v>181</v>
+      </c>
+      <c r="F99" s="4"/>
+      <c r="G99" s="4"/>
+      <c r="H99" s="4"/>
+    </row>
+    <row r="100" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B100" s="4"/>
+      <c r="C100" s="4"/>
+      <c r="D100" s="4"/>
+      <c r="E100" s="4"/>
+      <c r="F100" s="4"/>
+      <c r="G100" s="4"/>
+      <c r="H100" s="4"/>
+    </row>
+    <row r="101" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B101" s="4"/>
+      <c r="C101" s="4"/>
+      <c r="D101" s="4"/>
+      <c r="E101" s="4"/>
+      <c r="F101" s="4"/>
+      <c r="G101" s="4"/>
+      <c r="H101" s="4"/>
+    </row>
+    <row r="102" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B102" s="4"/>
+      <c r="C102" s="4"/>
+      <c r="D102" s="4"/>
+      <c r="E102" s="4"/>
+      <c r="F102" s="4"/>
+      <c r="G102" s="4"/>
+      <c r="H102" s="4"/>
+    </row>
+    <row r="103" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B103" s="4"/>
+      <c r="C103" s="4"/>
+      <c r="D103" s="4"/>
+      <c r="E103" s="4"/>
+      <c r="F103" s="4"/>
+      <c r="G103" s="4"/>
+      <c r="H103" s="4"/>
+    </row>
+    <row r="104" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B104" s="4"/>
+      <c r="C104" s="4"/>
+      <c r="D104" s="4"/>
+      <c r="E104" s="4"/>
+      <c r="F104" s="4"/>
+      <c r="G104" s="4"/>
+      <c r="H104" s="4"/>
+    </row>
+    <row r="105" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B105" s="4"/>
+      <c r="C105" s="4"/>
+      <c r="D105" s="4"/>
+      <c r="E105" s="4"/>
+      <c r="F105" s="4"/>
+      <c r="G105" s="4"/>
+      <c r="H105" s="4"/>
+    </row>
+    <row r="106" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B106" s="4"/>
+      <c r="C106" s="4"/>
+      <c r="D106" s="4"/>
+      <c r="E106" s="4"/>
+      <c r="F106" s="4"/>
+      <c r="G106" s="4"/>
+      <c r="H106" s="4"/>
+    </row>
+    <row r="107" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B107" s="4"/>
+      <c r="C107" s="4"/>
+      <c r="D107" s="4"/>
+      <c r="E107" s="4"/>
+      <c r="F107" s="4"/>
+      <c r="G107" s="4"/>
+      <c r="H107" s="4"/>
+    </row>
+    <row r="108" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B108" s="4"/>
+      <c r="C108" s="4"/>
+      <c r="D108" s="4"/>
+      <c r="E108" s="4"/>
+      <c r="F108" s="4"/>
+      <c r="G108" s="4"/>
+      <c r="H108" s="4"/>
+    </row>
+    <row r="109" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B109" s="4"/>
+      <c r="C109" s="4"/>
+      <c r="D109" s="4"/>
+      <c r="E109" s="4"/>
+      <c r="F109" s="4"/>
+      <c r="G109" s="4"/>
+      <c r="H109" s="4"/>
+    </row>
+    <row r="110" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B110" s="4"/>
+      <c r="C110" s="4"/>
+      <c r="D110" s="4"/>
+      <c r="E110" s="4"/>
+      <c r="F110" s="4"/>
+      <c r="G110" s="4"/>
+      <c r="H110" s="4"/>
+    </row>
+    <row r="111" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B111" s="4"/>
+      <c r="C111" s="4"/>
+      <c r="D111" s="4"/>
+      <c r="E111" s="4"/>
+      <c r="F111" s="4"/>
+      <c r="G111" s="4"/>
+      <c r="H111" s="4"/>
+    </row>
+    <row r="112" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B112" s="4"/>
+      <c r="C112" s="4"/>
+      <c r="D112" s="4"/>
+      <c r="E112" s="4"/>
+      <c r="F112" s="4"/>
+      <c r="G112" s="4"/>
+      <c r="H112" s="4"/>
+    </row>
+    <row r="113" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B113" s="4"/>
+      <c r="C113" s="4"/>
+      <c r="D113" s="4"/>
+      <c r="E113" s="4"/>
+      <c r="F113" s="4"/>
+      <c r="G113" s="4"/>
+      <c r="H113" s="4"/>
+    </row>
+    <row r="114" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B114" s="4"/>
+      <c r="C114" s="4"/>
+      <c r="D114" s="4"/>
+      <c r="E114" s="4"/>
+      <c r="F114" s="4"/>
+      <c r="G114" s="4"/>
+      <c r="H114" s="4"/>
+    </row>
+    <row r="115" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B115" s="4"/>
+      <c r="C115" s="4"/>
+      <c r="D115" s="4"/>
+      <c r="E115" s="4"/>
+      <c r="F115" s="4"/>
+      <c r="G115" s="4"/>
+      <c r="H115" s="4"/>
     </row>
   </sheetData>
   <mergeCells count="10">
